--- a/diagrams/files_and_images/Gantt_diagram.xlsx
+++ b/diagrams/files_and_images/Gantt_diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\EFREI\Semestre5 MOBILITE\Advanced WEB programming\PROJECT\webapp\LS-CUSTOMS\diagrams\files and images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\EFREI\Semestre5 MOBILITE\Advanced WEB programming\PROJECT\webapp\LS-CUSTOMS\diagrams\files_and_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9E790-EF56-44D7-9B47-01FADD4193A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EF1D4-27F0-49F7-BA5D-13FE322B30AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AA6A491-8344-488B-B4F6-CD981A99F086}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Week 1</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Implement fully working CRUD JSON</t>
   </si>
   <si>
-    <t>Implement CRUD controllers</t>
-  </si>
-  <si>
     <t>Implement login UI</t>
   </si>
   <si>
@@ -165,6 +162,36 @@
   </si>
   <si>
     <t>Link Login to DB</t>
+  </si>
+  <si>
+    <t>Implement Feature list</t>
+  </si>
+  <si>
+    <t>Implement Car edit</t>
+  </si>
+  <si>
+    <t>Separate admin and user pages</t>
+  </si>
+  <si>
+    <t>Final details</t>
+  </si>
+  <si>
+    <t>Feature edit and delete</t>
+  </si>
+  <si>
+    <t>Brand edit and delete</t>
+  </si>
+  <si>
+    <t>add for Brand and Feature</t>
+  </si>
+  <si>
+    <t>Implement Car list, edit, add and delete</t>
+  </si>
+  <si>
+    <t>Created dedicated car add+delete pages</t>
+  </si>
+  <si>
+    <t>create VIEW and GROUP BY</t>
   </si>
 </sst>
 </file>
@@ -186,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,23 +280,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,26 +638,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B917C82A-A178-43A4-BD16-3F9EAE86D86C}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
     <col min="13" max="13" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,8 +759,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -739,8 +778,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -758,8 +797,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -775,8 +814,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -786,16 +825,16 @@
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -803,14 +842,16 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -818,12 +859,16 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="H9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -831,12 +876,15 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -845,17 +893,16 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="I11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -865,14 +912,14 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8"/>
-      <c r="K12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -885,13 +932,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -904,14 +951,18 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="I14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1"/>
@@ -923,12 +974,14 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -938,9 +991,13 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -954,8 +1011,10 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -969,8 +1028,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -984,8 +1044,12 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="L19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -999,48 +1063,56 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
